--- a/WorkItems.xlsx
+++ b/WorkItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Teixeira\Documents\UiPath\Treino_Para_NOS________2________\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646792CF-D85D-46D9-942C-924D0376F029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B782D12-0D4E-4E7F-AB72-03A297193C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{9812103C-C234-438D-AB6A-5CFB05F68EE0}"/>
   </x:bookViews>
@@ -55,6 +55,123 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify Account Position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WI1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-01-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-01-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-07-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-09-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-07-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-07-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/106006592</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106006592</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-08-17</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -440,8 +557,8 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <x:selection activeCell="F7" sqref="F7 F:F"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F1" sqref="F1 F:F"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +592,246 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
